--- a/biology/Botanique/Pyrenomonadaceae/Pyrenomonadaceae.xlsx
+++ b/biology/Botanique/Pyrenomonadaceae/Pyrenomonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pyrenomonadaceae sont une famille d'algues de l'embranchement des Cryptista, de la classe des Cryptophyceae et de l’ordre des Pyrenomonadales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Pyrenomonas, dérivé du grec πυρ / pyr, feu, et μονασ / monas, « seul, solitaire, isolé », littéralement « monade de feu », appelée aussi Rhodomonas, « monade rouge », en référence à la couleur rouge de l'algue. En effet quand Karsten décrivit l'organisme, en 1898, il estima que « malgré l'absence de ses notes, il n'était pas sans intérêt de donner un bref compte rendu de Rhodomonas baltica, car, à sa connaissance, les flagellés rouges étaient jusqu'alors inconnus »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Pyrenomonas, dérivé du grec πυρ / pyr, feu, et μονασ / monas, « seul, solitaire, isolé », littéralement « monade de feu », appelée aussi Rhodomonas, « monade rouge », en référence à la couleur rouge de l'algue. En effet quand Karsten décrivit l'organisme, en 1898, il estima que « malgré l'absence de ses notes, il n'était pas sans intérêt de donner un bref compte rendu de Rhodomonas baltica, car, à sa connaissance, les flagellés rouges étaient jusqu'alors inconnus ».
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le protologue de Karsten (1898) a propos du Rhodomonas baltica a souligné des caractéristiques telles que la présence d'un seul chromatophore rouge, deux flagelles provenant d'une dépression antérieure à partir de laquelle une extension en forme de gosier légèrement incurvée se poursuivait vers l'arrière et un gros noyau situé au milieu de la cellule.
-Le même auteur distingua alors les membres du genre Pyrenomonas des autres genres de cryptomonades par leur « forme de cellule ovoïde typique, une partie antérieure plus large avec une partie postérieure effilée, un périplaste avec de nombreuses rangées de plaques rectangulaires décalées latéralement et, surtout, par leur chloroplaste unique en forme de H dans lequel le pyrénoïde est sans thylakoïde, et le nucléomorphe, enfoncé profondément, prend la position de la barre du H entre les deux lobes[1]. Cependant, selon Hill &amp; Wetherbee « l'affinité structurelle qu'a le genre Pyrenomonas avec le genre Rhodomonas, indique une synonymie générique, rendant superflus le genre Pyrenomonas plus récemment décrit. »[1].
+Le même auteur distingua alors les membres du genre Pyrenomonas des autres genres de cryptomonades par leur « forme de cellule ovoïde typique, une partie antérieure plus large avec une partie postérieure effilée, un périplaste avec de nombreuses rangées de plaques rectangulaires décalées latéralement et, surtout, par leur chloroplaste unique en forme de H dans lequel le pyrénoïde est sans thylakoïde, et le nucléomorphe, enfoncé profondément, prend la position de la barre du H entre les deux lobes. Cependant, selon Hill &amp; Wetherbee « l'affinité structurelle qu'a le genre Pyrenomonas avec le genre Rhodomonas, indique une synonymie générique, rendant superflus le genre Pyrenomonas plus récemment décrit. ».
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier Rhodomonas baltica a été découvert dans le fjord de Kieler en mer Baltique[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier Rhodomonas baltica a été découvert dans le fjord de Kieler en mer Baltique.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (3 septembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (3 septembre 2022) :
 Pyrenomonas Santore, 1984
 Espèce Holotype : Pyrenomonas salina (Wisłouch) U.J.Santore, 1984
 Nom actuellement accepté pour l'espèce type : Rhodomonas salina (Wisłouch) D.R.A.Hill &amp; R.Wetherbee, 1989
@@ -644,10 +664,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Pyrenomonadaceae G.Novarino &amp; I.A.N.Lucas[2].
-La validité des genres Pyromonas / Rhodomonas  est discutée, car la justification de Karsten, en 1898, pour décire l'algue « il n'était pas sans intérêt de donner un bref compte rendu de Rhodomonas baltica, car, à sa connaissance, les flagellés rouges étaient jusqu'alors inconnus » déclencha de nombreuses controverses « concernant l'utilisation de la couleur dans la systématique des cryptomonades, en particulier concernant la validité de Rhodomonas, genre apparemment établi sur la seule base de la couleur. »[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Pyrenomonadaceae G.Novarino &amp; I.A.N.Lucas.
+La validité des genres Pyromonas / Rhodomonas  est discutée, car la justification de Karsten, en 1898, pour décire l'algue « il n'était pas sans intérêt de donner un bref compte rendu de Rhodomonas baltica, car, à sa connaissance, les flagellés rouges étaient jusqu'alors inconnus » déclencha de nombreuses controverses « concernant l'utilisation de la couleur dans la systématique des cryptomonades, en particulier concernant la validité de Rhodomonas, genre apparemment établi sur la seule base de la couleur. ».
 </t>
         </is>
       </c>
